--- a/data/n2v/tables/model-1-1325-20230829-32.xlsx
+++ b/data/n2v/tables/model-1-1325-20230829-32.xlsx
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
